--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117953.7226370515</v>
+        <v>20756755.72401145</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117953.7226370515</v>
+        <v>20756755.72401145</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1411.561059132182</v>
+        <v>85823.07976779761</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1411.561059132182</v>
+        <v>85823.07976779761</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958746462.3227364</v>
+        <v>39028479.28969973</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7460.931843301081</v>
+        <v>861034.514998554</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14452.258343875</v>
+        <v>1646501.460069101</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21538.78246757967</v>
+        <v>2431968.40513965</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28683.58275550585</v>
+        <v>3217803.307078768</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35746.65009329218</v>
+        <v>4003588.975026319</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42895.82481778382</v>
+        <v>4789374.642973869</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49976.08779844352</v>
+        <v>5575160.310921416</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57098.30611811081</v>
+        <v>6360945.978868962</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>64156.59605919222</v>
+        <v>7146884.32620407</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71230.03537595067</v>
+        <v>7932809.052852248</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78357.44051319752</v>
+        <v>8718733.779500429</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>85379.15614390162</v>
+        <v>9504201.783710666</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92377.20180513276</v>
+        <v>10289726.94078122</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99466.71500639184</v>
+        <v>11075252.09785177</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106494.4973262239</v>
+        <v>11860777.25492232</v>
       </c>
     </row>
   </sheetData>
